--- a/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
@@ -36,7 +36,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="G3")</t>
+          <t>jx:area(lastCell="G4")</t>
         </r>
       </text>
     </comment>
@@ -552,7 +552,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
@@ -120,11 +120,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(F3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>门店费用明细查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(F3:F3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -132,8 +132,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -223,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +244,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +559,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -614,7 +621,7 @@
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -629,8 +636,8 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -640,8 +647,8 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
@@ -120,11 +120,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>门店费用明细查询</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUMPRODUCT(F3:F3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${titleName}明细查询</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +134,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -243,13 +243,13 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -258,6 +258,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -277,7 +345,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -559,7 +627,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -572,15 +640,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -621,7 +689,7 @@
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -636,8 +704,8 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="4"/>
     </row>

--- a/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>费用项目</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -125,6 +121,10 @@
   </si>
   <si>
     <t>${titleName}明细查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${header}项目</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -258,74 +258,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,7 +277,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -627,7 +559,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -641,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -664,13 +596,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -687,13 +619,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -705,7 +637,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4"/>
     </row>

--- a/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
@@ -36,7 +36,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="G4")</t>
+          <t>jx:area(lastCell="H4")</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="G3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="H3")</t>
         </r>
       </text>
     </comment>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>机构编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -116,15 +116,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(F3:F3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${titleName}明细查询</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${header}项目</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.parentName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(G3:G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -243,14 +251,14 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,33 +564,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="3" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -593,19 +602,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -616,19 +628,22 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -636,14 +651,15 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
